--- a/check.xlsx
+++ b/check.xlsx
@@ -13,16 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$B$1:$B$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$B$1:$B$40</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>Sl No</t>
   </si>
@@ -174,9 +175,6 @@
     <t>PENSION AND RETIREMENT BENEFITS TO THE EMPLOYEES RETIRED FROM COIR CO-OPERATIVE SOCIETIES-[XXXVII] 2851-00-106-25</t>
   </si>
   <si>
-    <t>Pension and retirement benefits to the employees retired from coir co-operative societies-[XXXVII] 2851-00-106-25</t>
-  </si>
-  <si>
     <t>VSI 080</t>
   </si>
   <si>
@@ -190,6 +188,48 @@
   </si>
   <si>
     <t>Training and Management Improvement 2851-00-106-35</t>
+  </si>
+  <si>
+    <t>Cluster Development and husk procurement programme in coir sector 2851-00-106-31</t>
+  </si>
+  <si>
+    <t>Mechanisation and Infrastructure Development of coir industry/regulated mechanisation of coir industry 2851-00-106-62</t>
+  </si>
+  <si>
+    <t>Mechanisation and Infrastructure Development of coir industry/regulated mechanisation of coir industry 4851-00-106-77</t>
+  </si>
+  <si>
+    <t>Training and Management Improvement 2851-00-106-61</t>
+  </si>
+  <si>
+    <t>Grant for centres for research and development in coir technology 2851-00-106-75</t>
+  </si>
+  <si>
+    <t>Margin Money loan to entrepreneurs</t>
+  </si>
+  <si>
+    <t>Marketing,publicity,propaganda, trade exhibitions and assistance for setting up of showrooms 2851-00-106-95</t>
+  </si>
+  <si>
+    <t>Market Development Assistance for the sale of coir and coir products 2851-00-106-92 (2)</t>
+  </si>
+  <si>
+    <t>Production and Marketing Incentive 2851-00-106-54</t>
+  </si>
+  <si>
+    <t>Price Fluctuation  Fund 2851-00-106-34</t>
+  </si>
+  <si>
+    <t>Coir Geo Textiles Development Programme 2851-00-106-67</t>
+  </si>
+  <si>
+    <t>Government share participation for coir co-operatives 4851-00-195-62</t>
+  </si>
+  <si>
+    <t>Re-organisation of coir industry-2nd phase  6851-00-106-84</t>
+  </si>
+  <si>
+    <t>Modernisation of coir project offices 2851-00-106-23</t>
   </si>
 </sst>
 </file>
@@ -558,11 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="A22" sqref="A22:R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -682,7 +721,7 @@
         <v>28.88</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -738,7 +777,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -776,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -832,7 +871,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -888,7 +927,7 @@
         <v>46.85</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -944,7 +983,7 @@
         <v>27.14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -991,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1047,7 +1086,7 @@
         <v>24.78</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1103,7 +1142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1159,7 +1198,7 @@
         <v>81.849999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1215,7 +1254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1318,7 +1357,7 @@
         <v>202843.45</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1340,14 +1379,14 @@
       <c r="P15">
         <v>50</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="2">
         <v>1.5</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1385,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1395,6 +1434,16 @@
       <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="H17" s="2"/>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
       <c r="M17">
         <v>0</v>
       </c>
@@ -1405,158 +1454,1011 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>14.9</v>
+      </c>
+      <c r="F19">
+        <v>67.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1000</v>
+      </c>
+      <c r="N20">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O20">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P20">
+        <v>1000</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>25</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>300</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>4500</v>
+      </c>
+      <c r="E23">
+        <v>1648.94</v>
+      </c>
+      <c r="F23">
+        <v>36.643111111111097</v>
+      </c>
+      <c r="G23">
+        <v>5077</v>
+      </c>
+      <c r="H23">
+        <v>3216.51</v>
+      </c>
+      <c r="I23">
+        <v>63.354540082725997</v>
+      </c>
+      <c r="J23">
+        <v>4600</v>
+      </c>
+      <c r="K23">
+        <v>967.95</v>
+      </c>
+      <c r="L23">
+        <v>21.042391304347799</v>
+      </c>
+      <c r="M23">
+        <v>3167</v>
+      </c>
+      <c r="N23">
+        <v>2256.0610000000001</v>
+      </c>
+      <c r="O23">
+        <v>71.236999999999995</v>
+      </c>
+      <c r="P23">
+        <v>3157</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>856.93</v>
+      </c>
+      <c r="R23" s="2">
+        <v>27.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1000</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="P24">
+        <v>1000</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>150</v>
+      </c>
+      <c r="E26">
+        <v>83.89</v>
+      </c>
+      <c r="F26">
+        <v>55.926666666666698</v>
+      </c>
+      <c r="G26">
+        <v>200</v>
+      </c>
+      <c r="H26">
+        <v>173.44399999999999</v>
+      </c>
+      <c r="I26">
+        <v>86.721999999999994</v>
+      </c>
+      <c r="J26">
+        <v>220</v>
+      </c>
+      <c r="K26">
+        <v>83.45</v>
+      </c>
+      <c r="L26">
+        <v>37.933999999999997</v>
+      </c>
+      <c r="M26">
+        <v>300</v>
+      </c>
+      <c r="N26">
+        <v>32.158999999999999</v>
+      </c>
+      <c r="O26">
+        <v>10.72</v>
+      </c>
+      <c r="P26">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="R26" s="2">
+        <v>24.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <v>825</v>
+      </c>
+      <c r="E27">
+        <v>439.23</v>
+      </c>
+      <c r="F27">
+        <v>53.238999999999997</v>
+      </c>
+      <c r="G27">
+        <v>850</v>
+      </c>
+      <c r="H27">
+        <v>500.39</v>
+      </c>
+      <c r="I27">
+        <v>58.869</v>
+      </c>
+      <c r="J27">
+        <v>850</v>
+      </c>
+      <c r="K27">
+        <v>498.02</v>
+      </c>
+      <c r="L27">
+        <v>58.591000000000001</v>
+      </c>
+      <c r="M27">
+        <v>714</v>
+      </c>
+      <c r="N27">
+        <v>620.28899999999999</v>
+      </c>
+      <c r="O27">
+        <v>86.875</v>
+      </c>
+      <c r="P27">
+        <v>714</v>
+      </c>
+      <c r="Q27">
+        <v>334.5</v>
+      </c>
+      <c r="R27">
+        <v>46.848739495798299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>880</v>
+      </c>
+      <c r="E29">
+        <v>275.43</v>
+      </c>
+      <c r="F29">
+        <v>31.298863636363599</v>
+      </c>
+      <c r="G29">
+        <v>970</v>
+      </c>
+      <c r="H29">
+        <v>716.47</v>
+      </c>
+      <c r="I29">
+        <v>73.8628865979381</v>
+      </c>
+      <c r="J29">
+        <v>1380</v>
+      </c>
+      <c r="K29">
+        <v>625.36</v>
+      </c>
+      <c r="L29">
+        <v>45.315942028985503</v>
+      </c>
+      <c r="M29">
+        <v>1082</v>
+      </c>
+      <c r="N29">
+        <v>781.71699999999998</v>
+      </c>
+      <c r="O29">
+        <v>72.247412199630304</v>
+      </c>
+      <c r="P29">
+        <v>1000</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>288.83999999999997</v>
+      </c>
+      <c r="R29" s="2">
+        <v>28.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>880</v>
+      </c>
+      <c r="E30">
+        <v>880</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>800</v>
+      </c>
+      <c r="H30">
+        <v>800</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>800</v>
+      </c>
+      <c r="K30">
+        <v>749.82</v>
+      </c>
+      <c r="L30">
+        <v>93.727999999999994</v>
+      </c>
+      <c r="M30">
+        <v>672</v>
+      </c>
+      <c r="N30">
+        <v>672</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+      <c r="P30">
+        <v>700</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>349.3</v>
+      </c>
+      <c r="R30" s="2">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>200</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>233.16</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>413.82400000000001</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>550</v>
+      </c>
+      <c r="E32">
+        <v>550</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>400</v>
+      </c>
+      <c r="H32">
+        <v>900</v>
+      </c>
+      <c r="I32" s="2">
+        <v>225</v>
+      </c>
+      <c r="J32">
+        <v>400</v>
+      </c>
+      <c r="K32">
+        <v>949.02</v>
+      </c>
+      <c r="L32">
+        <v>237.256</v>
+      </c>
+      <c r="M32">
+        <v>336</v>
+      </c>
+      <c r="N32">
+        <v>1136</v>
+      </c>
+      <c r="O32">
+        <v>338.09500000000003</v>
+      </c>
+      <c r="P32">
+        <v>400</v>
+      </c>
+      <c r="Q32">
+        <v>400</v>
+      </c>
+      <c r="R32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <v>4870</v>
+      </c>
+      <c r="E33">
+        <v>4870</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>4500</v>
+      </c>
+      <c r="H33">
+        <v>5941.86</v>
+      </c>
+      <c r="I33" s="2">
+        <v>132.04</v>
+      </c>
+      <c r="J33">
+        <v>4500</v>
+      </c>
+      <c r="K33">
+        <v>3545.57</v>
+      </c>
+      <c r="L33">
+        <v>78.790000000000006</v>
+      </c>
+      <c r="M33">
+        <v>3800</v>
+      </c>
+      <c r="N33">
+        <v>8100</v>
+      </c>
+      <c r="O33">
+        <v>213.15799999999999</v>
+      </c>
+      <c r="P33">
+        <v>3800</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>3110.18</v>
+      </c>
+      <c r="R33">
+        <v>81.435526315789502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>21.1</v>
+      </c>
+      <c r="F34">
+        <v>70.332999999999998</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>0.5</v>
+      </c>
+      <c r="I34">
+        <v>0.5</v>
+      </c>
+      <c r="J34">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>49.2</v>
+      </c>
+      <c r="L34">
+        <v>98.406999999999996</v>
+      </c>
+      <c r="M34">
+        <v>42</v>
+      </c>
+      <c r="N34">
+        <v>37.381</v>
+      </c>
+      <c r="O34">
+        <v>89.001999999999995</v>
+      </c>
+      <c r="P34">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>40.49</v>
+      </c>
+      <c r="R34" s="2">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>7.53</v>
+      </c>
+      <c r="I35">
+        <v>7.5279999999999996</v>
+      </c>
+      <c r="J35">
+        <v>50</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>6</v>
+      </c>
+      <c r="O35">
+        <v>60</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>5769.78</v>
+      </c>
+      <c r="L36" s="2">
+        <v>576978.06000000006</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>9445.9580000000005</v>
+      </c>
+      <c r="O36">
+        <v>944595.8</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>2028.43</v>
+      </c>
+      <c r="R36" s="2">
+        <v>202843.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>50</v>
+      </c>
+      <c r="N37">
+        <v>12.048999999999999</v>
+      </c>
+      <c r="O37">
+        <v>24.097000000000001</v>
+      </c>
+      <c r="P37">
+        <v>50</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="R37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>14.901</v>
+      </c>
+      <c r="F38">
+        <v>67.731999999999999</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1083.4000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>30.54</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>14.9</v>
-      </c>
-      <c r="F20">
-        <v>67.73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1000</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1000</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1000</v>
-      </c>
-      <c r="N21">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="O21">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="P21">
-        <v>1000</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>25</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>896.4</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B22">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="VSI 338"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>